--- a/Assignments/Game/ProductionSchedule.xlsx
+++ b/Assignments/Game/ProductionSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\College-Work\Assignments\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58151AFF-D41F-4B3D-A06E-12A41C3DA3D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1EDEB-8974-4D8A-B058-48F96E1020B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{73156668-9608-4C99-A4CB-83BA143B727F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73156668-9608-4C99-A4CB-83BA143B727F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="29">
   <si>
     <t>Design Characters</t>
   </si>
@@ -207,6 +207,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C270E01-BA42-47AC-BFA0-84C0FA9F0734}" name="Table1" displayName="Table1" ref="B3:F16" totalsRowShown="0">
+  <autoFilter ref="B3:F16" xr:uid="{80F7BA64-D72A-4432-ADC3-ED1614048C07}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{451F95D2-B1C0-4A81-B3D4-8D61979F4B9F}" name="Production Schedule"/>
+    <tableColumn id="2" xr3:uid="{845E3115-EC54-40F0-B9A4-DF542EB62CD2}" name="Time Start"/>
+    <tableColumn id="3" xr3:uid="{92E6C29C-DA24-4523-8CAD-618620FBAE1D}" name="Time End"/>
+    <tableColumn id="4" xr3:uid="{A7B53DD9-2412-47E4-A5BC-64D012DD53A6}" name="Done "/>
+    <tableColumn id="5" xr3:uid="{6E7D91E3-E778-4E69-A7C3-B97C4BF8C883}" name="Bugs Fixed"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,16 +522,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFF3B8-4B6E-4E48-BC14-8FCFFA8105E2}">
   <dimension ref="B3:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -707,5 +722,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>